--- a/Clase4/Tabla_para_practica.xlsx
+++ b/Clase4/Tabla_para_practica.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$15</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>idVenta</t>
   </si>
@@ -93,6 +95,69 @@
   </si>
   <si>
     <t>Sofía Martínez</t>
+  </si>
+  <si>
+    <t>cliente.idcliente</t>
+  </si>
+  <si>
+    <t>cliente.nombre</t>
+  </si>
+  <si>
+    <t>venta.idventa</t>
+  </si>
+  <si>
+    <t>venta.idcliente</t>
+  </si>
+  <si>
+    <t>Laura Arbelaez</t>
+  </si>
+  <si>
+    <t>Mario Gutierrez</t>
+  </si>
+  <si>
+    <t>Maria Bolanios</t>
+  </si>
+  <si>
+    <t>idventa</t>
+  </si>
+  <si>
+    <t>idcliente</t>
+  </si>
+  <si>
+    <t>275000.00</t>
+  </si>
+  <si>
+    <t>550000.00</t>
+  </si>
+  <si>
+    <t>365000.00</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>idproducto</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>teclado mecanico rgb</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>monitor led 24 pulgadas</t>
+  </si>
+  <si>
+    <t>iddetalle</t>
   </si>
 </sst>
 </file>
@@ -116,12 +181,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,11 +207,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -921,4 +1003,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45935</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45936</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45937</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>